--- a/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/EDOTTO/29722/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/EDOTTO/29722/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lavoro\2023\acur\CDA\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A15E0-8567-45DE-9074-F6BB0F902186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E364650-DF9D-4926-B09B-444ECE8B59B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="479">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1952,55 +1952,10 @@
     </r>
   </si>
   <si>
-    <t>dacd138f7a63af8c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.e743c9f980ef74d33d14d10efa84367ce4f7c9198a78006d3dd24dac63a6569e.f860f47827^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-24T16:07:00Z</t>
-  </si>
-  <si>
-    <t>2023-03-24T17:03:00Z</t>
-  </si>
-  <si>
-    <t>14d54c90d6b15d25</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>{
-    traceID: 14d54c90d6b15d25
-    spanID: 14d54c90d6b15d25
-    type: /msg/jwt-validation
-    title: Campo token JWT non valido.
-    detail: Il campo purpose_of_use non è valorizzato
-    status: 403
-    instance: /jwt-mandatory-field-missing
-    workflowInstanceId: UNKNOWN_WORKFLOW_ID
-}</t>
-  </si>
-  <si>
     <t>Segnalato tramite sistema di monitoraggio</t>
-  </si>
-  <si>
-    <t>2023-03-24T17:18:00Z</t>
-  </si>
-  <si>
-    <t>c76935ba1f5ee574</t>
-  </si>
-  <si>
-    <t>{
-    traceID: c76935ba1f5ee574
-    spanID: c76935ba1f5ee574
-    type: /msg/jwt-validation
-    title: Campo token JWT non valido.
-    detail: Il campo action_id non è corretto
-    status: 403
-    instance: /jwt-mandatory-field-malformed
-    workflowInstanceId: UNKNOWN_WORKFLOW_ID
-}</t>
   </si>
   <si>
     <t>connection timeout</t>
@@ -2037,6 +1992,85 @@
   </si>
   <si>
     <t>La sezione Complicanze non è gestita</t>
+  </si>
+  <si>
+    <t>2023-04-03T19:46:00Z</t>
+  </si>
+  <si>
+    <t>a2e79b1a025a43df</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.e743c9f980ef74d33d14d10efa84367ce4f7c9198a78006d3dd24dac63a6569e.b5a02834ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-03T20:14:00Z</t>
+  </si>
+  <si>
+    <t>3f38f404824dc1cc</t>
+  </si>
+  <si>
+    <t>//response get status 
+{
+   "traceID": "f4762a7890ce6372",
+   "spanID": "b9419cb49f2e6fce",
+   "transactionData": [   {
+      "eventType": "VALIDATION",
+      "eventDate": "2023-04-03T18:14:41.008+00:00",
+      "eventStatus": "BLOCKING_ERROR",
+      "message": "Il campo purpose_of_use non Ã¨ valorizzato",
+      "workflowInstanceId": "UNKNOWN_WORKFLOW_ID",
+      "traceId": "3f38f404824dc1cc",
+      "issuer": "UNDEFINED_JWT_ISSUER",
+      "expiringDate": "2024-04-02T18:14:41.066+00:00"
+   }]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "traceID": "3f38f404824dc1cc",
+    "spanID": "3f38f404824dc1cc",
+    "type": "/msg/jwt-validation",
+    "title": "Campo token JWT non valido.",
+    "detail": "Il campo purpose_of_use non è valorizzato",
+    "status": 403,
+    "instance": "/jwt-mandatory-field-missing",
+    "workflowInstanceId": "UNKNOWN_WORKFLOW_ID"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "traceID": "9e0fd851b94685d6",
+    "spanID": "9e0fd851b94685d6",
+    "type": "/msg/jwt-validation",
+    "title": "Campo token JWT non valido.",
+    "detail": "Il campo action_id non è corretto",
+    "status": 403,
+    "instance": "/jwt-mandatory-field-malformed",
+    "workflowInstanceId": "UNKNOWN_WORKFLOW_ID"
+}</t>
+  </si>
+  <si>
+    <t>//response get status
+{
+  "traceID": "4e6a51b23ca527ee",
+   "spanID": "60e3b6436e7242be",
+   "transactionData": [   {
+      "eventType": "VALIDATION",
+      "eventDate": "2023-04-03T18:07:47.161+00:00",
+      "eventStatus": "BLOCKING_ERROR",
+      "message": "Il campo action_id non Ã¨ corretto",
+      "workflowInstanceId": "UNKNOWN_WORKFLOW_ID",
+      "traceId": "9e0fd851b94685d6",
+      "issuer": "UNDEFINED_JWT_ISSUER",
+      "expiringDate": "2024-04-02T18:07:47.172+00:00"
+   }]
+}</t>
+  </si>
+  <si>
+    <t>2023-04-03T20:06:00Z</t>
+  </si>
+  <si>
+    <t>9e0fd851b94685d6</t>
   </si>
 </sst>
 </file>
@@ -2595,33 +2629,11 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2652,6 +2664,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2947,7 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC6FE8D-20B5-4094-9F18-656AE8EE60BF}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4098,7 +4132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -4129,14 +4163,14 @@
       <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="61"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4154,14 +4188,14 @@
       <c r="T2" s="39"/>
     </row>
     <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="69" t="s">
         <v>454</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="61"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4179,12 +4213,12 @@
       <c r="T3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="69" t="s">
         <v>455</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4203,12 +4237,12 @@
       <c r="T4" s="39"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
         <v>456</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="61"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4226,8 +4260,8 @@
       <c r="T5" s="39"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -5075,16 +5109,16 @@
         <v>75</v>
       </c>
       <c r="F31" s="17">
-        <v>45009</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>459</v>
+        <v>45019</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>468</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>83</v>
@@ -5126,7 +5160,7 @@
         <v>309</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -5164,7 +5198,7 @@
         <v>309</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -5202,7 +5236,7 @@
         <v>309</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -5454,7 +5488,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14">
         <v>35</v>
       </c>
@@ -5471,16 +5505,16 @@
         <v>431</v>
       </c>
       <c r="F42" s="17">
-        <v>45009</v>
+        <v>45019</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J42" s="19" t="s">
         <v>83</v>
@@ -5493,17 +5527,19 @@
         <v>309</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="O42" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P42" s="19" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q42" s="19"/>
       <c r="R42" s="20"/>
-      <c r="S42" s="21"/>
+      <c r="S42" s="21" t="s">
+        <v>473</v>
+      </c>
       <c r="T42" s="38" t="s">
         <v>430</v>
       </c>
@@ -5759,20 +5795,20 @@
       <c r="D50" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="61" t="s">
+      <c r="E50" s="49" t="s">
         <v>432</v>
       </c>
       <c r="F50" s="17">
-        <v>45009</v>
+        <v>45019</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J50" s="19" t="s">
         <v>83</v>
@@ -5785,17 +5821,19 @@
         <v>309</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="O50" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P50" s="19" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q50" s="19"/>
       <c r="R50" s="20"/>
-      <c r="S50" s="21"/>
+      <c r="S50" s="21" t="s">
+        <v>476</v>
+      </c>
       <c r="T50" s="38" t="s">
         <v>430</v>
       </c>
@@ -6065,7 +6103,7 @@
       <c r="D58" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E58" s="63" t="s">
+      <c r="E58" s="51" t="s">
         <v>96</v>
       </c>
       <c r="F58" s="17">
@@ -6084,14 +6122,14 @@
       <c r="M58" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="N58" s="57" t="s">
-        <v>468</v>
+      <c r="N58" s="46" t="s">
+        <v>459</v>
       </c>
       <c r="O58" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P58" s="19" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="20"/>
@@ -8481,7 +8519,7 @@
       </c>
     </row>
     <row r="129" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="58">
+      <c r="A129" s="47">
         <v>122</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -8632,62 +8670,62 @@
         <v>430</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="69" customFormat="1" ht="360.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="58">
+    <row r="133" spans="1:20" s="57" customFormat="1" ht="360.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="47">
         <v>126</v>
       </c>
-      <c r="B133" s="62" t="s">
+      <c r="B133" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C133" s="62" t="s">
+      <c r="C133" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="D133" s="62" t="s">
+      <c r="D133" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="E133" s="63" t="s">
+      <c r="E133" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="F133" s="64">
+      <c r="F133" s="52">
         <v>45009</v>
       </c>
-      <c r="G133" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="H133" s="65" t="s">
-        <v>469</v>
-      </c>
-      <c r="I133" s="65" t="s">
-        <v>471</v>
-      </c>
-      <c r="J133" s="57" t="s">
+      <c r="G133" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="H133" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="I133" s="53" t="s">
+        <v>462</v>
+      </c>
+      <c r="J133" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="K133" s="57"/>
-      <c r="L133" s="57" t="s">
+      <c r="K133" s="46"/>
+      <c r="L133" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="M133" s="57" t="s">
+      <c r="M133" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="N133" s="57" t="s">
-        <v>472</v>
-      </c>
-      <c r="O133" s="57" t="s">
+      <c r="N133" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="O133" s="46" t="s">
         <v>83</v>
       </c>
       <c r="P133" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q133" s="57"/>
-      <c r="R133" s="66"/>
-      <c r="S133" s="67"/>
-      <c r="T133" s="68" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q133" s="46"/>
+      <c r="R133" s="54"/>
+      <c r="S133" s="55"/>
+      <c r="T133" s="56" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="58">
+      <c r="A134" s="47">
         <v>127</v>
       </c>
       <c r="B134" s="15" t="s">
@@ -8953,7 +8991,7 @@
       </c>
     </row>
     <row r="141" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="58">
+      <c r="A141" s="47">
         <v>134</v>
       </c>
       <c r="B141" s="15" t="s">
@@ -8975,7 +9013,7 @@
       <c r="J141" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="K141" s="57" t="s">
+      <c r="K141" s="46" t="s">
         <v>442</v>
       </c>
       <c r="L141" s="19"/>
@@ -9013,7 +9051,7 @@
       <c r="J142" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="K142" s="57" t="s">
+      <c r="K142" s="46" t="s">
         <v>442</v>
       </c>
       <c r="L142" s="19"/>
@@ -9128,7 +9166,7 @@
         <v>309</v>
       </c>
       <c r="K145" s="19" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L145" s="19"/>
       <c r="M145" s="19"/>
@@ -9752,7 +9790,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="14">
         <v>156</v>
       </c>
@@ -9786,7 +9824,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="14">
         <v>157</v>
       </c>
@@ -9820,7 +9858,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="14">
         <v>158</v>
       </c>
@@ -9854,7 +9892,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="14">
         <v>159</v>
       </c>
@@ -9888,7 +9926,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="14">
         <v>160</v>
       </c>
@@ -9922,7 +9960,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="14">
         <v>161</v>
       </c>
@@ -9956,7 +9994,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="14">
         <v>162</v>
       </c>
@@ -9990,7 +10028,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="14">
         <v>163</v>
       </c>
@@ -10024,7 +10062,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="14">
         <v>164</v>
       </c>
@@ -10058,7 +10096,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="14">
         <v>165</v>
       </c>
@@ -10092,7 +10130,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="14">
         <v>166</v>
       </c>
@@ -10126,7 +10164,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="14">
         <v>167</v>
       </c>
@@ -10160,7 +10198,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="14">
         <v>168</v>
       </c>
@@ -26732,26 +26770,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26982,32 +27000,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB221413-913B-41FE-97D3-5428BD0403A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27026,6 +27039,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/EDOTTO/29722/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/EDOTTO/29722/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lavoro\2023\acur\CDA\accreditamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vvarratta\Desktop\Accreditamento\20230420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E364650-DF9D-4926-B09B-444ECE8B59B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D9970D-1AFB-4896-9AF0-B8971E9FCE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="477">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1994,15 +1994,6 @@
     <t>La sezione Complicanze non è gestita</t>
   </si>
   <si>
-    <t>2023-04-03T19:46:00Z</t>
-  </si>
-  <si>
-    <t>a2e79b1a025a43df</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.e743c9f980ef74d33d14d10efa84367ce4f7c9198a78006d3dd24dac63a6569e.b5a02834ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-04-03T20:14:00Z</t>
   </si>
   <si>
@@ -2071,6 +2062,9 @@
   </si>
   <si>
     <t>9e0fd851b94685d6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nel sistema Edotto le sezioni "Encounter Post Dimissione" e "Act Trasferimento Post Dimissione" sono mutuamente esclusive. </t>
   </si>
 </sst>
 </file>
@@ -4132,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5108,22 +5102,16 @@
       <c r="E31" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="17">
-        <v>45019</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>470</v>
-      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K31" s="19"/>
+        <v>309</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>476</v>
+      </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
@@ -5508,10 +5496,10 @@
         <v>45019</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>457</v>
@@ -5527,7 +5515,7 @@
         <v>309</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="O42" s="19" t="s">
         <v>83</v>
@@ -5538,7 +5526,7 @@
       <c r="Q42" s="19"/>
       <c r="R42" s="20"/>
       <c r="S42" s="21" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="T42" s="38" t="s">
         <v>430</v>
@@ -5802,10 +5790,10 @@
         <v>45019</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I50" s="18" t="s">
         <v>457</v>
@@ -5821,7 +5809,7 @@
         <v>309</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O50" s="19" t="s">
         <v>83</v>
@@ -5832,7 +5820,7 @@
       <c r="Q50" s="19"/>
       <c r="R50" s="20"/>
       <c r="S50" s="21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="T50" s="38" t="s">
         <v>430</v>

--- a/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/EDOTTO/29722/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/EDOTTO/29722/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vvarratta\Desktop\Accreditamento\20230420\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lavoro\2023\acur\CDA\Ultimo_accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D9970D-1AFB-4896-9AF0-B8971E9FCE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6D810E-E818-4377-8CBA-A3116084CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="480">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1955,9 +1955,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>Segnalato tramite sistema di monitoraggio</t>
-  </si>
-  <si>
     <t>connection timeout</t>
   </si>
   <si>
@@ -1980,15 +1977,6 @@
     instance: /validation/error
     workflowInstanceId: 2.16.840.1.113883.2.9.2.160.4.4.b03ca6614751d6c1d8e45968f4289a9b07b5633a53953e4c0e3f1c04124b2fac.eb6fa80117^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
 }</t>
-  </si>
-  <si>
-    <t>Dati opzionali non gestiti secondo verbale tra Regione-Exprivia Edotto 36bis.2022  del 02/11/2022. In particolare non gestiti: Encounters, Accertamenti, Piano di cura alla dimissione</t>
-  </si>
-  <si>
-    <t>Dati opzionali non gestiti secondo verbale tra Regione-Exprivia Edotto 36bis.2022  del 02/11/2022. In particolare non gestiti: Encounters, Complicanze, Piano di cura alla dimissione, Terapia farmacologica alla dimissione</t>
-  </si>
-  <si>
-    <t>Dati opzionali non gestiti secondo verbale tra Regione-Exprivia Edotto 36bis.2022  del 02/11/2022. In particolare non gestiti:Encounters, Complicanze, Accertamenti, Piano di cura alla dimissione, Terapia farmacologica alla dimissione</t>
   </si>
   <si>
     <t>La sezione Complicanze non è gestita</t>
@@ -2065,6 +2053,27 @@
   </si>
   <si>
     <t xml:space="preserve">Nel sistema Edotto le sezioni "Encounter Post Dimissione" e "Act Trasferimento Post Dimissione" sono mutuamente esclusive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segnalato tramite sistema di monitoraggio che  consente all'operatore di apportare le opportune modifiche e a reinviare il VPS </t>
+  </si>
+  <si>
+    <t>Segnalato tramite sistema di monitoraggio. Sarà ripristinato il paranetro che indica il campo "action_id" corretto e giornalmente reinvierà i VPS che  hanno avuto invio di esito negativo.</t>
+  </si>
+  <si>
+    <t>Segnalato tramite sistema di monitoraggio. Sarà ripristinato il paranetro 'JWT- campo "purpose_of_use"'. che indica il token jwt corretto e giornalmente reinvierà i VPS che hanno avuto invio di esito negativo.</t>
+  </si>
+  <si>
+    <t>Segnalato tramite sistema di monitoraggio ed inserito in una coda che si occupa di eseguire il  reinvio dei VPS.</t>
+  </si>
+  <si>
+    <t>Nel sistema Edotto le sezioni: "Encounters", "Accertamenti", "Piano cura  dimissione" non sono gestite.</t>
+  </si>
+  <si>
+    <t>Nel sistema Edotto le sezioni: "Encounters", "Complicanze", Piano cura dimissione", "Terapia farmacologica dimissione" non sono gestite.</t>
+  </si>
+  <si>
+    <t>Nel sistema Edotto le sezioni: "Encounters", "Complicanze", "Accertamenti", "Piano cura dimissione", "Terapia farmacologica  dimissione" non sono gestite.</t>
   </si>
 </sst>
 </file>
@@ -4124,10 +4133,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4372,7 +4382,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="144.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="144.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -4406,7 +4416,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="100.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="100.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2</v>
       </c>
@@ -4440,7 +4450,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="123" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>3</v>
       </c>
@@ -4474,7 +4484,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>4</v>
       </c>
@@ -4508,7 +4518,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -4542,7 +4552,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>6</v>
       </c>
@@ -4576,7 +4586,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>7</v>
       </c>
@@ -4610,7 +4620,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>8</v>
       </c>
@@ -4644,7 +4654,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>9</v>
       </c>
@@ -4678,7 +4688,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>11</v>
       </c>
@@ -4712,7 +4722,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>12</v>
       </c>
@@ -4746,7 +4756,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>13</v>
       </c>
@@ -4780,7 +4790,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>14</v>
       </c>
@@ -4814,7 +4824,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>16</v>
       </c>
@@ -4848,7 +4858,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>17</v>
       </c>
@@ -4882,7 +4892,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -4916,7 +4926,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -4950,7 +4960,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>20</v>
       </c>
@@ -4984,7 +4994,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -5018,7 +5028,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>22</v>
       </c>
@@ -5052,7 +5062,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="94.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="94.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>23</v>
       </c>
@@ -5110,7 +5120,7 @@
         <v>309</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
@@ -5148,7 +5158,7 @@
         <v>309</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -5186,7 +5196,7 @@
         <v>309</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -5200,7 +5210,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>27</v>
       </c>
@@ -5224,7 +5234,7 @@
         <v>309</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -5238,7 +5248,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>28</v>
       </c>
@@ -5272,7 +5282,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>29</v>
       </c>
@@ -5306,7 +5316,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>30</v>
       </c>
@@ -5340,7 +5350,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>31</v>
       </c>
@@ -5374,7 +5384,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <v>32</v>
       </c>
@@ -5408,7 +5418,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>33</v>
       </c>
@@ -5442,7 +5452,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>34</v>
       </c>
@@ -5476,8 +5486,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14">
+    <row r="42" spans="1:20" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47">
         <v>35</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -5496,10 +5506,10 @@
         <v>45019</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>457</v>
@@ -5515,24 +5525,24 @@
         <v>309</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O42" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P42" s="19" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="Q42" s="19"/>
       <c r="R42" s="20"/>
       <c r="S42" s="21" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="T42" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>36</v>
       </c>
@@ -5566,7 +5576,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>37</v>
       </c>
@@ -5600,7 +5610,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>38</v>
       </c>
@@ -5634,7 +5644,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>39</v>
       </c>
@@ -5668,7 +5678,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <v>40</v>
       </c>
@@ -5702,7 +5712,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>41</v>
       </c>
@@ -5736,7 +5746,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>42</v>
       </c>
@@ -5770,8 +5780,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="142.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14">
+    <row r="50" spans="1:20" ht="142.80000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47">
         <v>43</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -5790,10 +5800,10 @@
         <v>45019</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I50" s="18" t="s">
         <v>457</v>
@@ -5809,24 +5819,24 @@
         <v>309</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O50" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P50" s="19" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="Q50" s="19"/>
       <c r="R50" s="20"/>
       <c r="S50" s="21" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="T50" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>44</v>
       </c>
@@ -5862,7 +5872,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>45</v>
       </c>
@@ -5898,7 +5908,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>46</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>47</v>
       </c>
@@ -5970,7 +5980,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>48</v>
       </c>
@@ -6006,7 +6016,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>49</v>
       </c>
@@ -6042,7 +6052,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" ht="31.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>50</v>
       </c>
@@ -6078,8 +6088,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14">
+    <row r="58" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="47">
         <v>51</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -6111,13 +6121,13 @@
         <v>309</v>
       </c>
       <c r="N58" s="46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O58" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P58" s="19" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="20"/>
@@ -6126,7 +6136,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>52</v>
       </c>
@@ -6160,7 +6170,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>53</v>
       </c>
@@ -6194,7 +6204,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>54</v>
       </c>
@@ -6228,7 +6238,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>55</v>
       </c>
@@ -6262,7 +6272,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>56</v>
       </c>
@@ -6296,7 +6306,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>57</v>
       </c>
@@ -6330,7 +6340,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>58</v>
       </c>
@@ -6364,7 +6374,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>59</v>
       </c>
@@ -6398,7 +6408,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>60</v>
       </c>
@@ -6432,7 +6442,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>61</v>
       </c>
@@ -6466,7 +6476,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>62</v>
       </c>
@@ -6500,7 +6510,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>63</v>
       </c>
@@ -6534,7 +6544,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>64</v>
       </c>
@@ -6568,7 +6578,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>65</v>
       </c>
@@ -6602,7 +6612,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>66</v>
       </c>
@@ -6636,7 +6646,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>67</v>
       </c>
@@ -6670,7 +6680,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>68</v>
       </c>
@@ -6704,7 +6714,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>69</v>
       </c>
@@ -6738,7 +6748,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>70</v>
       </c>
@@ -6772,7 +6782,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>71</v>
       </c>
@@ -6806,7 +6816,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>72</v>
       </c>
@@ -6840,7 +6850,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>73</v>
       </c>
@@ -6874,7 +6884,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>74</v>
       </c>
@@ -6908,7 +6918,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>75</v>
       </c>
@@ -6942,7 +6952,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>76</v>
       </c>
@@ -6976,7 +6986,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>77</v>
       </c>
@@ -7010,7 +7020,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>78</v>
       </c>
@@ -7044,7 +7054,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>79</v>
       </c>
@@ -7078,7 +7088,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>80</v>
       </c>
@@ -7112,7 +7122,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>81</v>
       </c>
@@ -7146,7 +7156,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>82</v>
       </c>
@@ -7180,7 +7190,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>83</v>
       </c>
@@ -7214,7 +7224,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>84</v>
       </c>
@@ -7248,7 +7258,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>85</v>
       </c>
@@ -7282,7 +7292,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>86</v>
       </c>
@@ -7316,7 +7326,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>87</v>
       </c>
@@ -7350,7 +7360,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>88</v>
       </c>
@@ -7384,7 +7394,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>89</v>
       </c>
@@ -7418,7 +7428,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>90</v>
       </c>
@@ -7452,7 +7462,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>91</v>
       </c>
@@ -7486,7 +7496,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>92</v>
       </c>
@@ -7520,7 +7530,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>93</v>
       </c>
@@ -7554,7 +7564,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>94</v>
       </c>
@@ -7588,7 +7598,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>95</v>
       </c>
@@ -7622,7 +7632,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>96</v>
       </c>
@@ -7656,7 +7666,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>97</v>
       </c>
@@ -7690,7 +7700,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>98</v>
       </c>
@@ -7724,7 +7734,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>99</v>
       </c>
@@ -7758,7 +7768,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>100</v>
       </c>
@@ -7792,7 +7802,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>101</v>
       </c>
@@ -7826,7 +7836,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>102</v>
       </c>
@@ -7860,7 +7870,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>103</v>
       </c>
@@ -7894,7 +7904,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>104</v>
       </c>
@@ -7928,7 +7938,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>105</v>
       </c>
@@ -7962,7 +7972,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>106</v>
       </c>
@@ -7996,7 +8006,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>107</v>
       </c>
@@ -8030,7 +8040,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>108</v>
       </c>
@@ -8064,7 +8074,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>109</v>
       </c>
@@ -8098,7 +8108,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>110</v>
       </c>
@@ -8132,7 +8142,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>111</v>
       </c>
@@ -8166,7 +8176,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>112</v>
       </c>
@@ -8200,7 +8210,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>113</v>
       </c>
@@ -8234,7 +8244,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>114</v>
       </c>
@@ -8268,7 +8278,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>115</v>
       </c>
@@ -8302,7 +8312,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>116</v>
       </c>
@@ -8336,7 +8346,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>117</v>
       </c>
@@ -8370,7 +8380,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>118</v>
       </c>
@@ -8404,7 +8414,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>119</v>
       </c>
@@ -8438,7 +8448,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>120</v>
       </c>
@@ -8472,7 +8482,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>121</v>
       </c>
@@ -8506,7 +8516,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="47">
         <v>122</v>
       </c>
@@ -8544,7 +8554,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>123</v>
       </c>
@@ -8582,7 +8592,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>124</v>
       </c>
@@ -8620,7 +8630,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>125</v>
       </c>
@@ -8658,7 +8668,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="57" customFormat="1" ht="360.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" s="57" customFormat="1" ht="360" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="47">
         <v>126</v>
       </c>
@@ -8678,13 +8688,13 @@
         <v>45009</v>
       </c>
       <c r="G133" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="H133" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="I133" s="53" t="s">
         <v>461</v>
-      </c>
-      <c r="H133" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="I133" s="53" t="s">
-        <v>462</v>
       </c>
       <c r="J133" s="46" t="s">
         <v>83</v>
@@ -8697,13 +8707,13 @@
         <v>309</v>
       </c>
       <c r="N133" s="46" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O133" s="46" t="s">
         <v>83</v>
       </c>
       <c r="P133" s="19" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="Q133" s="46"/>
       <c r="R133" s="54"/>
@@ -8712,7 +8722,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="47">
         <v>127</v>
       </c>
@@ -8750,7 +8760,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>128</v>
       </c>
@@ -8788,7 +8798,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>129</v>
       </c>
@@ -8826,7 +8836,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>130</v>
       </c>
@@ -8864,7 +8874,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>131</v>
       </c>
@@ -8902,7 +8912,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>132</v>
       </c>
@@ -8940,7 +8950,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>133</v>
       </c>
@@ -8978,7 +8988,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="47">
         <v>134</v>
       </c>
@@ -9016,7 +9026,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>135</v>
       </c>
@@ -9054,7 +9064,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>136</v>
       </c>
@@ -9092,7 +9102,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>137</v>
       </c>
@@ -9130,7 +9140,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>138</v>
       </c>
@@ -9154,7 +9164,7 @@
         <v>309</v>
       </c>
       <c r="K145" s="19" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L145" s="19"/>
       <c r="M145" s="19"/>
@@ -9168,7 +9178,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>139</v>
       </c>
@@ -9206,7 +9216,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>140</v>
       </c>
@@ -9244,7 +9254,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>141</v>
       </c>
@@ -9282,7 +9292,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>142</v>
       </c>
@@ -9320,7 +9330,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>143</v>
       </c>
@@ -9358,7 +9368,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>144</v>
       </c>
@@ -9396,7 +9406,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>145</v>
       </c>
@@ -9434,7 +9444,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>146</v>
       </c>
@@ -9472,7 +9482,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>147</v>
       </c>
@@ -9506,7 +9516,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>148</v>
       </c>
@@ -9540,7 +9550,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>149</v>
       </c>
@@ -9574,7 +9584,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>150</v>
       </c>
@@ -9608,7 +9618,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>151</v>
       </c>
@@ -9642,7 +9652,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>152</v>
       </c>
@@ -9676,7 +9686,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>153</v>
       </c>
@@ -9710,7 +9720,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>154</v>
       </c>
@@ -9744,7 +9754,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>155</v>
       </c>
@@ -9778,7 +9788,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>156</v>
       </c>
@@ -9812,7 +9822,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>157</v>
       </c>
@@ -9846,7 +9856,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>158</v>
       </c>
@@ -9880,7 +9890,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>159</v>
       </c>
@@ -9914,7 +9924,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>160</v>
       </c>
@@ -9948,7 +9958,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>161</v>
       </c>
@@ -9982,7 +9992,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>162</v>
       </c>
@@ -10016,7 +10026,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>163</v>
       </c>
@@ -10050,7 +10060,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>164</v>
       </c>
@@ -10084,7 +10094,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>165</v>
       </c>
@@ -10118,7 +10128,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>166</v>
       </c>
@@ -10152,7 +10162,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>167</v>
       </c>
@@ -10186,7 +10196,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>168</v>
       </c>
@@ -10220,7 +10230,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="129.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" ht="129.44999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>169</v>
       </c>
@@ -10254,7 +10264,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>170</v>
       </c>
@@ -10288,7 +10298,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>171</v>
       </c>
@@ -10322,7 +10332,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>172</v>
       </c>
@@ -10356,7 +10366,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>173</v>
       </c>
@@ -10390,7 +10400,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>174</v>
       </c>
@@ -10424,7 +10434,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>175</v>
       </c>
@@ -10458,7 +10468,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>176</v>
       </c>
@@ -10492,7 +10502,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>177</v>
       </c>
@@ -10526,7 +10536,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>178</v>
       </c>
@@ -10560,7 +10570,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>179</v>
       </c>
@@ -10594,7 +10604,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>180</v>
       </c>
@@ -10628,7 +10638,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>181</v>
       </c>
@@ -10662,7 +10672,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="14">
         <v>182</v>
       </c>
@@ -10696,7 +10706,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="14">
         <v>183</v>
       </c>
@@ -10730,7 +10740,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="14">
         <v>184</v>
       </c>
@@ -10764,7 +10774,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="14">
         <v>185</v>
       </c>
@@ -10798,7 +10808,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="14">
         <v>186</v>
       </c>
@@ -10832,7 +10842,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="14">
         <v>187</v>
       </c>
@@ -10866,7 +10876,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="14">
         <v>188</v>
       </c>
@@ -10900,7 +10910,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="14">
         <v>189</v>
       </c>
@@ -10934,7 +10944,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="14">
         <v>190</v>
       </c>
@@ -10968,7 +10978,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="14">
         <v>191</v>
       </c>
@@ -24518,7 +24528,21 @@
       <c r="T993" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T198" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A9:T198" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="24"/>
+        <filter val="25"/>
+        <filter val="26"/>
+        <filter val="27"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="VPS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -26758,6 +26782,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26988,17 +27023,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -27009,6 +27033,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB221413-913B-41FE-97D3-5428BD0403A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27027,23 +27068,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
   <ds:schemaRefs>
